--- a/assets/excel/Daftar Kota Tujuan.xlsx
+++ b/assets/excel/Daftar Kota Tujuan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>Daftar Kota Tujuan</t>
   </si>
@@ -213,6 +213,27 @@
   </si>
   <si>
     <t>Bogor</t>
+  </si>
+  <si>
+    <t>Palembang</t>
+  </si>
+  <si>
+    <t>Batam</t>
+  </si>
+  <si>
+    <t>Bengkulu</t>
+  </si>
+  <si>
+    <t>Pangkalpinang</t>
+  </si>
+  <si>
+    <t>Padang</t>
+  </si>
+  <si>
+    <t>Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Brazil</t>
   </si>
 </sst>
 </file>
@@ -551,7 +572,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1311,22 +1332,22 @@
         <v>12</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>380000</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>650000</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2800000</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2257,6 +2278,230 @@
         <v>0</v>
       </c>
       <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>380000</v>
+      </c>
+      <c r="E56">
+        <v>180000</v>
+      </c>
+      <c r="F56">
+        <v>650000</v>
+      </c>
+      <c r="G56">
+        <v>550000</v>
+      </c>
+      <c r="H56">
+        <v>345000</v>
+      </c>
+      <c r="I56">
+        <v>1500000</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>380000</v>
+      </c>
+      <c r="E57">
+        <v>250000</v>
+      </c>
+      <c r="F57">
+        <v>750000</v>
+      </c>
+      <c r="G57">
+        <v>750000</v>
+      </c>
+      <c r="H57">
+        <v>300000</v>
+      </c>
+      <c r="I57">
+        <v>2000000</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>380000</v>
+      </c>
+      <c r="E58">
+        <v>300000</v>
+      </c>
+      <c r="F58">
+        <v>750000</v>
+      </c>
+      <c r="G58">
+        <v>800000</v>
+      </c>
+      <c r="H58">
+        <v>350000</v>
+      </c>
+      <c r="I58">
+        <v>1800000</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>380000</v>
+      </c>
+      <c r="E59">
+        <v>300000</v>
+      </c>
+      <c r="F59">
+        <v>700000</v>
+      </c>
+      <c r="G59">
+        <v>800000</v>
+      </c>
+      <c r="H59">
+        <v>345000</v>
+      </c>
+      <c r="I59">
+        <v>1500000</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60">
+        <v>380000</v>
+      </c>
+      <c r="E60">
+        <v>250000</v>
+      </c>
+      <c r="F60">
+        <v>700000</v>
+      </c>
+      <c r="G60">
+        <v>800000</v>
+      </c>
+      <c r="H60">
+        <v>345000</v>
+      </c>
+      <c r="I60">
+        <v>2500000</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <v>380000</v>
+      </c>
+      <c r="E61">
+        <v>250000</v>
+      </c>
+      <c r="F61">
+        <v>750000</v>
+      </c>
+      <c r="G61">
+        <v>800000</v>
+      </c>
+      <c r="H61">
+        <v>345000</v>
+      </c>
+      <c r="I61">
+        <v>2500000</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62">
+        <v>15000000</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
         <v>0</v>
       </c>
     </row>

--- a/assets/excel/Daftar Kota Tujuan.xlsx
+++ b/assets/excel/Daftar Kota Tujuan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>Daftar Kota Tujuan</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Cilacap</t>
   </si>
   <si>
-    <t>Dalam Kota</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -234,6 +231,111 @@
   </si>
   <si>
     <t>Brazil</t>
+  </si>
+  <si>
+    <t>Spanyol</t>
+  </si>
+  <si>
+    <t>Poso</t>
+  </si>
+  <si>
+    <t>Depok</t>
+  </si>
+  <si>
+    <t>Bekasi</t>
+  </si>
+  <si>
+    <t>Balikpapan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Serpong</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Tangerang Selatan</t>
+  </si>
+  <si>
+    <t>Kubu Raya</t>
+  </si>
+  <si>
+    <t>Sulawesi Selatan</t>
+  </si>
+  <si>
+    <t>Yordania</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Sumedang</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Belgia</t>
+  </si>
+  <si>
+    <t>Pasuruan</t>
+  </si>
+  <si>
+    <t>Majalengka</t>
+  </si>
+  <si>
+    <t>Garut</t>
+  </si>
+  <si>
+    <t>Mataram</t>
+  </si>
+  <si>
+    <t>Polewali</t>
+  </si>
+  <si>
+    <t>Bima</t>
+  </si>
+  <si>
+    <t>Muscat</t>
+  </si>
+  <si>
+    <t>Maladewa</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Purwokerto</t>
+  </si>
+  <si>
+    <t>Brebes</t>
+  </si>
+  <si>
+    <t>Slawi</t>
+  </si>
+  <si>
+    <t>Banyuwangi</t>
+  </si>
+  <si>
+    <t>Gunung Sindur</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Ceko</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
   </si>
 </sst>
 </file>
@@ -572,7 +674,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1169,7 +1271,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>430000</v>
@@ -1198,7 +1300,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -1230,7 +1332,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1262,7 +1364,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1294,7 +1396,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -1326,7 +1428,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1358,7 +1460,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1390,7 +1492,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1422,7 +1524,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1454,7 +1556,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1486,7 +1588,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -1518,7 +1620,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -1550,7 +1652,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -1582,7 +1684,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -1614,7 +1716,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -1646,7 +1748,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -1678,16 +1780,16 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>370000</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>130000</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1696,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>650000</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1710,7 +1812,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -1742,7 +1844,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -1774,7 +1876,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -1806,7 +1908,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
         <v>26</v>
@@ -1838,7 +1940,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
         <v>26</v>
@@ -1870,7 +1972,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
         <v>26</v>
@@ -1902,7 +2004,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
         <v>26</v>
@@ -1934,7 +2036,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
         <v>26</v>
@@ -1966,7 +2068,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>26</v>
@@ -1998,7 +2100,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
         <v>26</v>
@@ -2030,7 +2132,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
         <v>26</v>
@@ -2062,7 +2164,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
         <v>26</v>
@@ -2094,7 +2196,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
         <v>26</v>
@@ -2126,7 +2228,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
         <v>26</v>
@@ -2158,7 +2260,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
         <v>26</v>
@@ -2190,7 +2292,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
         <v>26</v>
@@ -2222,7 +2324,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
         <v>26</v>
@@ -2254,10 +2356,10 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D55">
         <v>150000</v>
@@ -2286,7 +2388,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -2318,7 +2420,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -2350,7 +2452,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2382,7 +2484,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
@@ -2414,7 +2516,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -2446,7 +2548,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
@@ -2478,7 +2580,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
         <v>26</v>
@@ -2502,6 +2604,1126 @@
         <v>0</v>
       </c>
       <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>370000</v>
+      </c>
+      <c r="E64">
+        <v>130000</v>
+      </c>
+      <c r="F64">
+        <v>951000</v>
+      </c>
+      <c r="G64">
+        <v>738000</v>
+      </c>
+      <c r="H64">
+        <v>330000</v>
+      </c>
+      <c r="I64">
+        <v>5113000</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>166000</v>
+      </c>
+      <c r="E65">
+        <v>150000</v>
+      </c>
+      <c r="F65">
+        <v>570000</v>
+      </c>
+      <c r="G65">
+        <v>822000</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>430000</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>804000</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>900000</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
         <v>0</v>
       </c>
     </row>
